--- a/database/AN_pp/expdata/4000.xlsx
+++ b/database/AN_pp/expdata/4000.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/jam3d/database/AN_pp/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73344E64-8304-054F-BA1A-D449CD8FD466}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36E12A9-CC39-9148-95C9-73117CF63367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9500" yWindow="5340" windowWidth="24100" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
   <si>
     <t>xF</t>
   </si>
@@ -62,6 +72,12 @@
   </si>
   <si>
     <t>jet</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>&lt;y&gt;</t>
   </si>
 </sst>
 </file>
@@ -93,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -165,11 +181,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -180,6 +207,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,15 +548,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K2" sqref="K2:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,8 +587,14 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0.21280499999999999</v>
       </c>
@@ -589,8 +625,16 @@
       <c r="J2" t="s">
         <v>12</v>
       </c>
+      <c r="K2">
+        <f>ASINH(A2*F2/(2*E2))</f>
+        <v>2.959641587997754</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGE(K1:K10)</f>
+        <v>3.2582307924827258</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>0.25539899999999999</v>
       </c>
@@ -621,8 +665,12 @@
       <c r="J3" t="s">
         <v>12</v>
       </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K10" si="0">ASINH(A3*F3/(2*E3))</f>
+        <v>3.0336311039240034</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>0.30341400000000002</v>
       </c>
@@ -653,8 +701,12 @@
       <c r="J4" t="s">
         <v>12</v>
       </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>3.1206627154628359</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>0.35309400000000002</v>
       </c>
@@ -685,8 +737,12 @@
       <c r="J5" t="s">
         <v>12</v>
       </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>3.2212988023244384</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>0.40296599999999999</v>
       </c>
@@ -717,8 +773,12 @@
       <c r="J6" t="s">
         <v>12</v>
       </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>3.3164017711998528</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>0.45301900000000001</v>
       </c>
@@ -749,8 +809,12 @@
       <c r="J7" t="s">
         <v>12</v>
       </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>3.3890210626185295</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>0.50291200000000003</v>
       </c>
@@ -781,8 +845,12 @@
       <c r="J8" t="s">
         <v>12</v>
       </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>3.4218891550071757</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>0.55311600000000005</v>
       </c>
@@ -813,8 +881,12 @@
       <c r="J9" t="s">
         <v>12</v>
       </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>3.4322141720414443</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0.61186099999999999</v>
       </c>
@@ -844,6 +916,10 @@
       </c>
       <c r="J10" t="s">
         <v>12</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>3.4293167617685021</v>
       </c>
     </row>
   </sheetData>

--- a/database/AN_pp/expdata/4000.xlsx
+++ b/database/AN_pp/expdata/4000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36E12A9-CC39-9148-95C9-73117CF63367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CC4066-EF10-1945-BE75-771896E6245A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9500" yWindow="5340" windowWidth="24100" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18300" yWindow="3600" windowWidth="24100" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
   <si>
     <t>xF</t>
   </si>
@@ -78,13 +78,22 @@
   </si>
   <si>
     <t>&lt;y&gt;</t>
+  </si>
+  <si>
+    <t>xFmin</t>
+  </si>
+  <si>
+    <t>xFmax</t>
+  </si>
+  <si>
+    <t>Dependence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +105,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -210,6 +226,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,15 +567,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,8 +612,17 @@
       <c r="L1" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="M1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0.21280499999999999</v>
       </c>
@@ -633,8 +661,17 @@
         <f>AVERAGE(K1:K10)</f>
         <v>3.2582307924827258</v>
       </c>
+      <c r="M2" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="N2" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>0.25539899999999999</v>
       </c>
@@ -669,8 +706,17 @@
         <f t="shared" ref="K3:K10" si="0">ASINH(A3*F3/(2*E3))</f>
         <v>3.0336311039240034</v>
       </c>
+      <c r="M3" s="10">
+        <v>0.23</v>
+      </c>
+      <c r="N3" s="10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O3" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>0.30341400000000002</v>
       </c>
@@ -705,8 +751,17 @@
         <f t="shared" si="0"/>
         <v>3.1206627154628359</v>
       </c>
+      <c r="M4" s="10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="O4" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>0.35309400000000002</v>
       </c>
@@ -741,8 +796,17 @@
         <f t="shared" si="0"/>
         <v>3.2212988023244384</v>
       </c>
+      <c r="M5" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="N5" s="10">
+        <v>0.38</v>
+      </c>
+      <c r="O5" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>0.40296599999999999</v>
       </c>
@@ -777,8 +841,17 @@
         <f t="shared" si="0"/>
         <v>3.3164017711998528</v>
       </c>
+      <c r="M6" s="10">
+        <v>0.38</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0.43</v>
+      </c>
+      <c r="O6" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>0.45301900000000001</v>
       </c>
@@ -813,8 +886,17 @@
         <f t="shared" si="0"/>
         <v>3.3890210626185295</v>
       </c>
+      <c r="M7" s="10">
+        <v>0.43</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0.48</v>
+      </c>
+      <c r="O7" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>0.50291200000000003</v>
       </c>
@@ -849,8 +931,17 @@
         <f t="shared" si="0"/>
         <v>3.4218891550071757</v>
       </c>
+      <c r="M8" s="10">
+        <v>0.48</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0.53</v>
+      </c>
+      <c r="O8" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>0.55311600000000005</v>
       </c>
@@ -885,8 +976,17 @@
         <f t="shared" si="0"/>
         <v>3.4322141720414443</v>
       </c>
+      <c r="M9" s="10">
+        <v>0.53</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O9" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0.61186099999999999</v>
       </c>
@@ -920,6 +1020,15 @@
       <c r="K10">
         <f t="shared" si="0"/>
         <v>3.4293167617685021</v>
+      </c>
+      <c r="M10" s="11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N10" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="O10" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
